--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Parker.Fall.110920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Parker.Fall.110920.xlsx_with_dialog_acts.xlsx
@@ -1189,12 +1189,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1609,12 +1609,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1735,12 +1735,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2663,12 +2663,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3083,12 +3083,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3209,12 +3209,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3251,12 +3251,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3465,12 +3465,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3927,12 +3927,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4769,12 +4769,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4811,12 +4811,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5021,12 +5021,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5063,12 +5063,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5775,12 +5775,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5943,12 +5943,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6027,12 +6027,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6363,12 +6363,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6699,12 +6699,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6783,12 +6783,12 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6909,12 +6909,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7035,12 +7035,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7077,12 +7077,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7455,12 +7455,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7795,12 +7795,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7879,12 +7879,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8215,12 +8215,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8299,12 +8299,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8383,12 +8383,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8639,12 +8639,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8681,12 +8681,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8765,12 +8765,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9017,12 +9017,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9059,12 +9059,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9521,12 +9521,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9819,12 +9819,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11079,12 +11079,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11121,12 +11121,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11205,12 +11205,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11373,12 +11373,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11585,12 +11585,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11627,12 +11627,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11711,12 +11711,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11795,12 +11795,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12257,12 +12257,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12511,12 +12511,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12595,12 +12595,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12973,12 +12973,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13225,12 +13225,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13309,12 +13309,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14149,12 +14149,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14405,12 +14405,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15331,12 +15331,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15415,12 +15415,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15457,12 +15457,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15669,12 +15669,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17147,12 +17147,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17867,12 +17867,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18107,12 +18107,12 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18187,12 +18187,12 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18267,12 +18267,12 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18671,12 +18671,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20035,12 +20035,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20115,12 +20115,12 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20395,12 +20395,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20757,12 +20757,12 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20837,12 +20837,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20959,12 +20959,12 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20999,12 +20999,12 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22119,12 +22119,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22359,12 +22359,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23003,12 +23003,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23409,12 +23409,12 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23449,12 +23449,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23609,12 +23609,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23649,12 +23649,12 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23769,12 +23769,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24125,12 +24125,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24285,12 +24285,12 @@
       <c r="H576" t="inlineStr"/>
       <c r="I576" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24485,12 +24485,12 @@
       <c r="H581" t="inlineStr"/>
       <c r="I581" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24969,12 +24969,12 @@
       <c r="H593" t="inlineStr"/>
       <c r="I593" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25049,12 +25049,12 @@
       <c r="H595" t="inlineStr"/>
       <c r="I595" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25129,12 +25129,12 @@
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25209,12 +25209,12 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25369,12 +25369,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25853,12 +25853,12 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25973,12 +25973,12 @@
       <c r="H618" t="inlineStr"/>
       <c r="I618" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26175,12 +26175,12 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26295,12 +26295,12 @@
       <c r="H626" t="inlineStr"/>
       <c r="I626" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26535,12 +26535,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26813,12 +26813,12 @@
       <c r="H639" t="inlineStr"/>
       <c r="I639" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26853,12 +26853,12 @@
       <c r="H640" t="inlineStr"/>
       <c r="I640" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26933,12 +26933,12 @@
       <c r="H642" t="inlineStr"/>
       <c r="I642" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27173,12 +27173,12 @@
       <c r="H648" t="inlineStr"/>
       <c r="I648" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27615,12 +27615,12 @@
       <c r="H659" t="inlineStr"/>
       <c r="I659" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
